--- a/Visnepark_Missing_Original.xlsx
+++ b/Visnepark_Missing_Original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idil/Downloads/drive-download-20251004T092037Z-1-001/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/idilerzurum/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF644D6-73CB-7F43-95FE-248C934A154D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860F5E98-5F21-1247-97CD-9CCC20C409F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15800" yWindow="4220" windowWidth="34560" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$8800</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>PM10 ( µg/m3 )</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Date</t>
@@ -36,7 +36,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -93,7 +93,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,9 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8800"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="243" zoomScaleNormal="243" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -410,7 +408,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -428,273 +426,171 @@
       <c r="A3" s="2">
         <v>45292.042314814818</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45292.083981481483</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45292.125648148147</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45292.167314814818</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45292.208981481483</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45292.250648148147</v>
       </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45292.292314814818</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45292.333981481483</v>
       </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45292.375648148147</v>
       </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45292.417314814818</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45292.458981481483</v>
       </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45292.500648148147</v>
       </c>
-      <c r="B14" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45292.542314814818</v>
       </c>
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45292.583981481483</v>
       </c>
-      <c r="B16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45292.625648148147</v>
       </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45292.667314814818</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45292.708981481483</v>
       </c>
-      <c r="B19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45292.750648148147</v>
       </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45292.792314814818</v>
       </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45292.833981481483</v>
       </c>
-      <c r="B22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45292.875648148147</v>
       </c>
-      <c r="B23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45292.917314814818</v>
       </c>
-      <c r="B24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45292.958981481483</v>
       </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45293.000648148147</v>
       </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45293.042314814818</v>
       </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>45293.083981481483</v>
       </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>45293.125648148147</v>
       </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>45293.167314814818</v>
       </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>45293.208981481483</v>
       </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>45293.250648148147</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>45293.292314814818</v>
       </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>45293.333981481483</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>45293.375648148147</v>
       </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>45293.417314814818</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -1140,9 +1036,6 @@
       <c r="A92" s="2">
         <v>45295.750648148147</v>
       </c>
-      <c r="B92" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
@@ -2148,1257 +2041,786 @@
       <c r="A218" s="2">
         <v>45301.000648148147</v>
       </c>
-      <c r="B218" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>45301.042314814818</v>
       </c>
-      <c r="B219" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>45301.083981481483</v>
       </c>
-      <c r="B220" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>45301.125648148147</v>
       </c>
-      <c r="B221" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>45301.167314814818</v>
       </c>
-      <c r="B222" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>45301.208981481483</v>
       </c>
-      <c r="B223" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>45301.250648148147</v>
       </c>
-      <c r="B224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>45301.292314814818</v>
       </c>
-      <c r="B225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>45301.333981481483</v>
       </c>
-      <c r="B226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>45301.375648148147</v>
       </c>
-      <c r="B227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>45301.417314814818</v>
       </c>
-      <c r="B228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>45301.458981481483</v>
       </c>
-      <c r="B229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>45301.500648148147</v>
       </c>
-      <c r="B230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>45301.542314814818</v>
       </c>
-      <c r="B231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>45301.583981481483</v>
       </c>
-      <c r="B232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>45301.625648148147</v>
       </c>
-      <c r="B233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>45301.667314814818</v>
       </c>
-      <c r="B234" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>45301.708981481483</v>
       </c>
-      <c r="B235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>45301.750648148147</v>
       </c>
-      <c r="B236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>45301.792314814818</v>
       </c>
-      <c r="B237" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>45301.833981481483</v>
       </c>
-      <c r="B238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>45301.875648148147</v>
       </c>
-      <c r="B239" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>45301.917314814818</v>
       </c>
-      <c r="B240" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>45301.958981481483</v>
       </c>
-      <c r="B241" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>45302.000648148147</v>
       </c>
-      <c r="B242" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>45302.042314814818</v>
       </c>
-      <c r="B243" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>45302.083981481483</v>
       </c>
-      <c r="B244" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>45302.125648148147</v>
       </c>
-      <c r="B245" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>45302.167314814818</v>
       </c>
-      <c r="B246" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>45302.208981481483</v>
       </c>
-      <c r="B247" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>45302.250648148147</v>
       </c>
-      <c r="B248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>45302.292314814818</v>
       </c>
-      <c r="B249" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>45302.333981481483</v>
       </c>
-      <c r="B250" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>45302.375648148147</v>
       </c>
-      <c r="B251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>45302.417314814818</v>
       </c>
-      <c r="B252" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>45302.458981481483</v>
       </c>
-      <c r="B253" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>45302.500648148147</v>
       </c>
-      <c r="B254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>45302.542314814818</v>
       </c>
-      <c r="B255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>45302.583981481483</v>
       </c>
-      <c r="B256" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>45302.625648148147</v>
       </c>
-      <c r="B257" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>45302.667314814818</v>
       </c>
-      <c r="B258" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>45302.708981481483</v>
       </c>
-      <c r="B259" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>45302.750648148147</v>
       </c>
-      <c r="B260" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>45302.792314814818</v>
       </c>
-      <c r="B261" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>45302.833981481483</v>
       </c>
-      <c r="B262" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>45302.875648148147</v>
       </c>
-      <c r="B263" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>45302.917314814818</v>
       </c>
-      <c r="B264" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>45302.958981481483</v>
       </c>
-      <c r="B265" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>45303.000648148147</v>
       </c>
-      <c r="B266" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>45303.042314814818</v>
       </c>
-      <c r="B267" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>45303.083981481483</v>
       </c>
-      <c r="B268" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>45303.125648148147</v>
       </c>
-      <c r="B269" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>45303.167314814818</v>
       </c>
-      <c r="B270" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>45303.208981481483</v>
       </c>
-      <c r="B271" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>45303.250648148147</v>
       </c>
-      <c r="B272" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>45303.292314814818</v>
       </c>
-      <c r="B273" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>45303.333981481483</v>
       </c>
-      <c r="B274" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>45303.375648148147</v>
       </c>
-      <c r="B275" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>45303.417314814818</v>
       </c>
-      <c r="B276" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>45303.458981481483</v>
       </c>
-      <c r="B277" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>45303.500648148147</v>
       </c>
-      <c r="B278" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>45303.542314814818</v>
       </c>
-      <c r="B279" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>45303.583981481483</v>
       </c>
-      <c r="B280" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>45303.625648148147</v>
       </c>
-      <c r="B281" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>45303.667314814818</v>
       </c>
-      <c r="B282" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>45303.708981481483</v>
       </c>
-      <c r="B283" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>45303.750648148147</v>
       </c>
-      <c r="B284" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>45303.792314814818</v>
       </c>
-      <c r="B285" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>45303.833981481483</v>
       </c>
-      <c r="B286" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>45303.875648148147</v>
       </c>
-      <c r="B287" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>45303.917314814818</v>
       </c>
-      <c r="B288" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>45303.958981481483</v>
       </c>
-      <c r="B289" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>45304.000648148147</v>
       </c>
-      <c r="B290" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>45304.042314814818</v>
       </c>
-      <c r="B291" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>45304.083981481483</v>
       </c>
-      <c r="B292" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>45304.125648148147</v>
       </c>
-      <c r="B293" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>45304.167314814818</v>
       </c>
-      <c r="B294" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>45304.208981481483</v>
       </c>
-      <c r="B295" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>45304.250648148147</v>
       </c>
-      <c r="B296" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>45304.292314814818</v>
       </c>
-      <c r="B297" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>45304.333981481483</v>
       </c>
-      <c r="B298" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>45304.375648148147</v>
       </c>
-      <c r="B299" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>45304.417314814818</v>
       </c>
-      <c r="B300" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>45304.458981481483</v>
       </c>
-      <c r="B301" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>45304.500648148147</v>
       </c>
-      <c r="B302" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>45304.542314814818</v>
       </c>
-      <c r="B303" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>45304.583981481483</v>
       </c>
-      <c r="B304" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>45304.625648148147</v>
       </c>
-      <c r="B305" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>45304.667314814818</v>
       </c>
-      <c r="B306" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>45304.708981481483</v>
       </c>
-      <c r="B307" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>45304.750648148147</v>
       </c>
-      <c r="B308" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>45304.792314814818</v>
       </c>
-      <c r="B309" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>45304.833981481483</v>
       </c>
-      <c r="B310" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>45304.875648148147</v>
       </c>
-      <c r="B311" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>45304.917314814818</v>
       </c>
-      <c r="B312" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>45304.958981481483</v>
       </c>
-      <c r="B313" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>45305.000648148147</v>
       </c>
-      <c r="B314" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>45305.042314814818</v>
       </c>
-      <c r="B315" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>45305.083981481483</v>
       </c>
-      <c r="B316" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>45305.125648148147</v>
       </c>
-      <c r="B317" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>45305.167314814818</v>
       </c>
-      <c r="B318" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>45305.208981481483</v>
       </c>
-      <c r="B319" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>45305.250648148147</v>
       </c>
-      <c r="B320" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>45305.292314814818</v>
       </c>
-      <c r="B321" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>45305.333981481483</v>
       </c>
-      <c r="B322" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>45305.375648148147</v>
       </c>
-      <c r="B323" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>45305.417314814818</v>
       </c>
-      <c r="B324" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>45305.458981481483</v>
       </c>
-      <c r="B325" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>45305.500648148147</v>
       </c>
-      <c r="B326" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>45305.542314814818</v>
       </c>
-      <c r="B327" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>45305.583981481483</v>
       </c>
-      <c r="B328" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>45305.625648148147</v>
       </c>
-      <c r="B329" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>45305.667314814818</v>
       </c>
-      <c r="B330" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>45305.708981481483</v>
       </c>
-      <c r="B331" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>45305.750648148147</v>
       </c>
-      <c r="B332" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>45305.792314814818</v>
       </c>
-      <c r="B333" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>45305.833981481483</v>
       </c>
-      <c r="B334" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>45305.875648148147</v>
       </c>
-      <c r="B335" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>45305.917314814818</v>
       </c>
-      <c r="B336" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>45305.958981481483</v>
       </c>
-      <c r="B337" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>45306.000648148147</v>
       </c>
-      <c r="B338" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>45306.042314814818</v>
       </c>
-      <c r="B339" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>45306.083981481483</v>
       </c>
-      <c r="B340" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>45306.125648148147</v>
       </c>
-      <c r="B341" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>45306.167314814818</v>
       </c>
-      <c r="B342" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>45306.208981481483</v>
       </c>
-      <c r="B343" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>45306.250648148147</v>
       </c>
-      <c r="B344" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>45306.292314814818</v>
       </c>
-      <c r="B345" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>45306.333981481483</v>
       </c>
-      <c r="B346" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>45306.375648148147</v>
       </c>
-      <c r="B347" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>45306.417314814818</v>
       </c>
-      <c r="B348" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>45306.458981481483</v>
       </c>
-      <c r="B349" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>45306.500648148147</v>
       </c>
-      <c r="B350" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>45306.542314814818</v>
       </c>
-      <c r="B351" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>45306.583981481483</v>
       </c>
-      <c r="B352" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>45306.625648148147</v>
       </c>
-      <c r="B353" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>45306.667314814818</v>
       </c>
-      <c r="B354" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>45306.708981481483</v>
       </c>
-      <c r="B355" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>45306.750648148147</v>
       </c>
-      <c r="B356" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>45306.792314814818</v>
       </c>
-      <c r="B357" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>45306.833981481483</v>
       </c>
-      <c r="B358" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>45306.875648148147</v>
       </c>
-      <c r="B359" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>45306.917314814818</v>
       </c>
-      <c r="B360" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>45306.958981481483</v>
       </c>
-      <c r="B361" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>45307.000648148147</v>
       </c>
-      <c r="B362" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>45307.042314814818</v>
       </c>
-      <c r="B363" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>45307.083981481483</v>
       </c>
-      <c r="B364" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>45307.125648148147</v>
       </c>
-      <c r="B365" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>45307.167314814818</v>
       </c>
-      <c r="B366" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>45307.208981481483</v>
       </c>
-      <c r="B367" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>45307.250648148147</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>45307.292314814818</v>
       </c>
-      <c r="B369" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>45307.333981481483</v>
       </c>
-      <c r="B370" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>45307.375648148147</v>
       </c>
-      <c r="B371" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>45307.417314814818</v>
       </c>
-      <c r="B372" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>45307.458981481483</v>
       </c>
-      <c r="B373" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>45307.500648148147</v>
       </c>
-      <c r="B374" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
@@ -5572,9 +4994,6 @@
       <c r="A646" s="2">
         <v>45318.833981481483</v>
       </c>
-      <c r="B646" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
@@ -12676,9 +12095,6 @@
       <c r="A1534" s="2">
         <v>45355.833981481483</v>
       </c>
-      <c r="B1534" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1535" s="2">
@@ -13940,9 +13356,6 @@
       <c r="A1692" s="2">
         <v>45362.417314814818</v>
       </c>
-      <c r="B1692" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="1693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1693" s="2">
@@ -16652,9 +16065,6 @@
       <c r="A2031" s="2">
         <v>45376.542314814818</v>
       </c>
-      <c r="B2031" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2032" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2032" s="2">
@@ -26004,9 +25414,6 @@
       <c r="A3200" s="2">
         <v>45425.250648148147</v>
       </c>
-      <c r="B3200" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3201" s="2">
@@ -27828,161 +27235,101 @@
       <c r="A3428" s="2">
         <v>45434.750648148147</v>
       </c>
-      <c r="B3428" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3429" s="2">
         <v>45434.792314814818</v>
       </c>
-      <c r="B3429" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3430" s="2">
         <v>45434.833981481483</v>
       </c>
-      <c r="B3430" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3431" s="2">
         <v>45434.875648148147</v>
       </c>
-      <c r="B3431" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3432" s="2">
         <v>45434.917314814818</v>
       </c>
-      <c r="B3432" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3433" s="2">
         <v>45434.958981481483</v>
       </c>
-      <c r="B3433" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3434" s="2">
         <v>45435.000648148147</v>
       </c>
-      <c r="B3434" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3435" s="2">
         <v>45435.042314814818</v>
       </c>
-      <c r="B3435" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3436" s="2">
         <v>45435.083981481483</v>
       </c>
-      <c r="B3436" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3437" s="2">
         <v>45435.125648148147</v>
       </c>
-      <c r="B3437" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3438" s="2">
         <v>45435.167314814818</v>
       </c>
-      <c r="B3438" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3439" s="2">
         <v>45435.208981481483</v>
       </c>
-      <c r="B3439" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3440" s="2">
         <v>45435.250648148147</v>
       </c>
-      <c r="B3440" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3441" s="2">
         <v>45435.292314814818</v>
       </c>
-      <c r="B3441" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3442" s="2">
         <v>45435.333981481483</v>
       </c>
-      <c r="B3442" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3443" s="2">
         <v>45435.375648148147</v>
       </c>
-      <c r="B3443" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3444" s="2">
         <v>45435.417314814818</v>
       </c>
-      <c r="B3444" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3445" s="2">
         <v>45435.458981481483</v>
       </c>
-      <c r="B3445" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3446" s="2">
         <v>45435.500648148147</v>
       </c>
-      <c r="B3446" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3447" s="2">
         <v>45435.542314814818</v>
       </c>
-      <c r="B3447" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3448" s="2">
@@ -32700,9 +32047,6 @@
       <c r="A4037" s="2">
         <v>45460.125648148147</v>
       </c>
-      <c r="B4037" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4038" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4038" s="2">
@@ -34364,17 +33708,11 @@
       <c r="A4245" s="2">
         <v>45468.792314814818</v>
       </c>
-      <c r="B4245" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4246" s="2">
         <v>45468.833981481483</v>
       </c>
-      <c r="B4246" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4247" s="2">
@@ -38588,25 +37926,16 @@
       <c r="A4773" s="2">
         <v>45490.792314814818</v>
       </c>
-      <c r="B4773" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4774" s="2">
         <v>45490.833981481483</v>
       </c>
-      <c r="B4774" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4775" s="2">
         <v>45490.875648148147</v>
       </c>
-      <c r="B4775" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4776" s="2">
@@ -39548,321 +38877,201 @@
       <c r="A4893" s="2">
         <v>45495.792314814818</v>
       </c>
-      <c r="B4893" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4894" s="2">
         <v>45495.833981481483</v>
       </c>
-      <c r="B4894" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4895" s="2">
         <v>45495.875648148147</v>
       </c>
-      <c r="B4895" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4896" s="2">
         <v>45495.917314814818</v>
       </c>
-      <c r="B4896" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4897" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4897" s="2">
         <v>45495.958981481483</v>
       </c>
-      <c r="B4897" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4898" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4898" s="2">
         <v>45496.000648148147</v>
       </c>
-      <c r="B4898" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4899" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4899" s="2">
         <v>45496.042314814818</v>
       </c>
-      <c r="B4899" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4900" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4900" s="2">
         <v>45496.083981481483</v>
       </c>
-      <c r="B4900" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4901" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4901" s="2">
         <v>45496.125648148147</v>
       </c>
-      <c r="B4901" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4902" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4902" s="2">
         <v>45496.167314814818</v>
       </c>
-      <c r="B4902" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4903" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4903" s="2">
         <v>45496.208981481483</v>
       </c>
-      <c r="B4903" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4904" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4904" s="2">
         <v>45496.250648148147</v>
       </c>
-      <c r="B4904" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4905" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4905" s="2">
         <v>45496.292314814818</v>
       </c>
-      <c r="B4905" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4906" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4906" s="2">
         <v>45496.333981481483</v>
       </c>
-      <c r="B4906" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4907" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4907" s="2">
         <v>45496.375648148147</v>
       </c>
-      <c r="B4907" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4908" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4908" s="2">
         <v>45496.417314814818</v>
       </c>
-      <c r="B4908" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4909" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4909" s="2">
         <v>45496.458981481483</v>
       </c>
-      <c r="B4909" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4910" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4910" s="2">
         <v>45496.500648148147</v>
       </c>
-      <c r="B4910" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4911" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4911" s="2">
         <v>45496.542314814818</v>
       </c>
-      <c r="B4911" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4912" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4912" s="2">
         <v>45496.583981481483</v>
       </c>
-      <c r="B4912" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4913" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4913" s="2">
         <v>45496.625648148147</v>
       </c>
-      <c r="B4913" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4914" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4914" s="2">
         <v>45496.667314814818</v>
       </c>
-      <c r="B4914" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4915" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4915" s="2">
         <v>45496.708981481483</v>
       </c>
-      <c r="B4915" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4916" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4916" s="2">
         <v>45496.750648148147</v>
       </c>
-      <c r="B4916" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4917" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4917" s="2">
         <v>45496.792314814818</v>
       </c>
-      <c r="B4917" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4918" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4918" s="2">
         <v>45496.833981481483</v>
       </c>
-      <c r="B4918" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4919" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4919" s="2">
         <v>45496.875648148147</v>
       </c>
-      <c r="B4919" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4920" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4920" s="2">
         <v>45496.917314814818</v>
       </c>
-      <c r="B4920" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4921" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4921" s="2">
         <v>45496.958981481483</v>
       </c>
-      <c r="B4921" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4922" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4922" s="2">
         <v>45497.000648148147</v>
       </c>
-      <c r="B4922" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4923" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4923" s="2">
         <v>45497.042314814818</v>
       </c>
-      <c r="B4923" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4924" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4924" s="2">
         <v>45497.083981481483</v>
       </c>
-      <c r="B4924" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4925" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4925" s="2">
         <v>45497.125648148147</v>
       </c>
-      <c r="B4925" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4926" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4926" s="2">
         <v>45497.167314814818</v>
       </c>
-      <c r="B4926" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4927" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4927" s="2">
         <v>45497.208981481483</v>
       </c>
-      <c r="B4927" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4928" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4928" s="2">
         <v>45497.250648148147</v>
-      </c>
-      <c r="B4928" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4929" s="2">
         <v>45497.292314814818</v>
       </c>
-      <c r="B4929" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4930" s="2">
         <v>45497.333981481483</v>
       </c>
-      <c r="B4930" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4931" s="2">
         <v>45497.375648148147</v>
       </c>
-      <c r="B4931" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4932" s="2">
         <v>45497.417314814818</v>
       </c>
-      <c r="B4932" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="4933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4933" s="2">
@@ -55076,545 +54285,341 @@
       <c r="A6834" s="2">
         <v>45576.667314814818</v>
       </c>
-      <c r="B6834" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6835" s="2">
         <v>45576.708981481483</v>
       </c>
-      <c r="B6835" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6836" s="2">
         <v>45576.750648148147</v>
       </c>
-      <c r="B6836" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6837" s="2">
         <v>45576.792314814818</v>
       </c>
-      <c r="B6837" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6838" s="2">
         <v>45576.833981481483</v>
       </c>
-      <c r="B6838" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6839" s="2">
         <v>45576.875648148147</v>
       </c>
-      <c r="B6839" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6840" s="2">
         <v>45576.917314814818</v>
       </c>
-      <c r="B6840" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6841" s="2">
         <v>45576.958981481483</v>
       </c>
-      <c r="B6841" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6842" s="2">
         <v>45577.000648148147</v>
       </c>
-      <c r="B6842" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6843" s="2">
         <v>45577.042314814818</v>
       </c>
-      <c r="B6843" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6844" s="2">
         <v>45577.083981481483</v>
       </c>
-      <c r="B6844" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6845" s="2">
         <v>45577.125648148147</v>
       </c>
-      <c r="B6845" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6846" s="2">
         <v>45577.167314814818</v>
       </c>
-      <c r="B6846" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6847" s="2">
         <v>45577.208981481483</v>
       </c>
-      <c r="B6847" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6848" s="2">
         <v>45577.250648148147</v>
       </c>
-      <c r="B6848" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6849" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6849" s="2">
         <v>45577.292314814818</v>
       </c>
-      <c r="B6849" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6850" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6850" s="2">
         <v>45577.333981481483</v>
       </c>
-      <c r="B6850" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6851" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6851" s="2">
         <v>45577.375648148147</v>
       </c>
-      <c r="B6851" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6852" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6852" s="2">
         <v>45577.417314814818</v>
       </c>
-      <c r="B6852" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6853" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6853" s="2">
         <v>45577.458981481483</v>
       </c>
-      <c r="B6853" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6854" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6854" s="2">
         <v>45577.500648148147</v>
       </c>
-      <c r="B6854" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6855" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6855" s="2">
         <v>45577.542314814818</v>
       </c>
-      <c r="B6855" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6856" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6856" s="2">
         <v>45577.583981481483</v>
       </c>
-      <c r="B6856" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6857" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6857" s="2">
         <v>45577.625648148147</v>
       </c>
-      <c r="B6857" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6858" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6858" s="2">
         <v>45577.667314814818</v>
       </c>
-      <c r="B6858" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6859" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6859" s="2">
         <v>45577.708981481483</v>
       </c>
-      <c r="B6859" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6860" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6860" s="2">
         <v>45577.750648148147</v>
       </c>
-      <c r="B6860" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6861" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6861" s="2">
         <v>45577.792314814818</v>
       </c>
-      <c r="B6861" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6862" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6862" s="2">
         <v>45577.833981481483</v>
       </c>
-      <c r="B6862" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6863" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6863" s="2">
         <v>45577.875648148147</v>
       </c>
-      <c r="B6863" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6864" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6864" s="2">
         <v>45577.917314814818</v>
       </c>
-      <c r="B6864" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6865" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6865" s="2">
         <v>45577.958981481483</v>
       </c>
-      <c r="B6865" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6866" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6866" s="2">
         <v>45578.000648148147</v>
       </c>
-      <c r="B6866" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6867" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6867" s="2">
         <v>45578.042314814818</v>
       </c>
-      <c r="B6867" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6868" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6868" s="2">
         <v>45578.083981481483</v>
       </c>
-      <c r="B6868" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6869" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6869" s="2">
         <v>45578.125648148147</v>
       </c>
-      <c r="B6869" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6870" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6870" s="2">
         <v>45578.167314814818</v>
       </c>
-      <c r="B6870" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6871" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6871" s="2">
         <v>45578.208981481483</v>
       </c>
-      <c r="B6871" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6872" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6872" s="2">
         <v>45578.250648148147</v>
       </c>
-      <c r="B6872" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6873" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6873" s="2">
         <v>45578.292314814818</v>
       </c>
-      <c r="B6873" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6874" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6874" s="2">
         <v>45578.333981481483</v>
       </c>
-      <c r="B6874" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6875" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6875" s="2">
         <v>45578.375648148147</v>
       </c>
-      <c r="B6875" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6876" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6876" s="2">
         <v>45578.417314814818</v>
       </c>
-      <c r="B6876" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6877" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6877" s="2">
         <v>45578.458981481483</v>
       </c>
-      <c r="B6877" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6878" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6878" s="2">
         <v>45578.500648148147</v>
       </c>
-      <c r="B6878" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6879" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6879" s="2">
         <v>45578.542314814818</v>
       </c>
-      <c r="B6879" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6880" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6880" s="2">
         <v>45578.583981481483</v>
       </c>
-      <c r="B6880" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6881" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6881" s="2">
         <v>45578.625648148147</v>
       </c>
-      <c r="B6881" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6882" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6882" s="2">
         <v>45578.667314814818</v>
       </c>
-      <c r="B6882" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6883" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6883" s="2">
         <v>45578.708981481483</v>
       </c>
-      <c r="B6883" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6884" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6884" s="2">
         <v>45578.750648148147</v>
       </c>
-      <c r="B6884" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6885" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6885" s="2">
         <v>45578.792314814818</v>
       </c>
-      <c r="B6885" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6886" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6886" s="2">
         <v>45578.833981481483</v>
       </c>
-      <c r="B6886" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6887" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6887" s="2">
         <v>45578.875648148147</v>
       </c>
-      <c r="B6887" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6888" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6888" s="2">
         <v>45578.917314814818</v>
       </c>
-      <c r="B6888" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6889" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6889" s="2">
         <v>45578.958981481483</v>
       </c>
-      <c r="B6889" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6890" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6890" s="2">
         <v>45579.000648148147</v>
       </c>
-      <c r="B6890" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6891" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6891" s="2">
         <v>45579.042314814818</v>
       </c>
-      <c r="B6891" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6892" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6892" s="2">
         <v>45579.083981481483</v>
       </c>
-      <c r="B6892" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6893" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6893" s="2">
         <v>45579.125648148147</v>
       </c>
-      <c r="B6893" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6894" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6894" s="2">
         <v>45579.167314814818</v>
       </c>
-      <c r="B6894" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6895" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6895" s="2">
         <v>45579.208981481483</v>
       </c>
-      <c r="B6895" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6896" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6896" s="2">
         <v>45579.250648148147</v>
-      </c>
-      <c r="B6896" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="6897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6897" s="2">
         <v>45579.292314814818</v>
       </c>
-      <c r="B6897" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6898" s="2">
         <v>45579.333981481483</v>
       </c>
-      <c r="B6898" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6899" s="2">
         <v>45579.375648148147</v>
       </c>
-      <c r="B6899" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6900" s="2">
         <v>45579.417314814818</v>
       </c>
-      <c r="B6900" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6901" s="2">
         <v>45579.458981481483</v>
       </c>
-      <c r="B6901" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="6902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6902" s="2">
@@ -57948,737 +56953,461 @@
       <c r="A7193" s="2">
         <v>45591.625648148147</v>
       </c>
-      <c r="B7193" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7194" s="2">
         <v>45591.667314814818</v>
       </c>
-      <c r="B7194" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7195" s="2">
         <v>45591.708981481483</v>
       </c>
-      <c r="B7195" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7196" s="2">
         <v>45591.750648148147</v>
       </c>
-      <c r="B7196" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7197" s="2">
         <v>45591.792314814818</v>
       </c>
-      <c r="B7197" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7198" s="2">
         <v>45591.833981481483</v>
       </c>
-      <c r="B7198" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7199" s="2">
         <v>45591.875648148147</v>
       </c>
-      <c r="B7199" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7200" s="2">
         <v>45591.917314814818</v>
       </c>
-      <c r="B7200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7201" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7201" s="2">
         <v>45591.958981481483</v>
       </c>
-      <c r="B7201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7202" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7202" s="2">
         <v>45592.000648148147</v>
       </c>
-      <c r="B7202" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7203" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7203" s="2">
         <v>45592.042314814818</v>
       </c>
-      <c r="B7203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7204" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7204" s="2">
         <v>45592.083981481483</v>
       </c>
-      <c r="B7204" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7205" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7205" s="2">
         <v>45592.125648148147</v>
       </c>
-      <c r="B7205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7206" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7206" s="2">
         <v>45592.167314814818</v>
       </c>
-      <c r="B7206" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7207" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7207" s="2">
         <v>45592.208981481483</v>
       </c>
-      <c r="B7207" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7208" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7208" s="2">
         <v>45592.250648148147</v>
       </c>
-      <c r="B7208" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7209" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7209" s="2">
         <v>45592.292314814818</v>
       </c>
-      <c r="B7209" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7210" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7210" s="2">
         <v>45592.333981481483</v>
       </c>
-      <c r="B7210" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7211" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7211" s="2">
         <v>45592.375648148147</v>
       </c>
-      <c r="B7211" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7212" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7212" s="2">
         <v>45592.417314814818</v>
       </c>
-      <c r="B7212" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7213" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7213" s="2">
         <v>45592.458981481483</v>
       </c>
-      <c r="B7213" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7214" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7214" s="2">
         <v>45592.500648148147</v>
       </c>
-      <c r="B7214" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7215" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7215" s="2">
         <v>45592.542314814818</v>
       </c>
-      <c r="B7215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7216" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7216" s="2">
         <v>45592.583981481483</v>
       </c>
-      <c r="B7216" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7217" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7217" s="2">
         <v>45592.625648148147</v>
       </c>
-      <c r="B7217" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7218" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7218" s="2">
         <v>45592.667314814818</v>
       </c>
-      <c r="B7218" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7219" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7219" s="2">
         <v>45592.708981481483</v>
       </c>
-      <c r="B7219" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7220" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7220" s="2">
         <v>45592.750648148147</v>
       </c>
-      <c r="B7220" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7221" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7221" s="2">
         <v>45592.792314814818</v>
       </c>
-      <c r="B7221" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7222" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7222" s="2">
         <v>45592.833981481483</v>
       </c>
-      <c r="B7222" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7223" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7223" s="2">
         <v>45592.875648148147</v>
       </c>
-      <c r="B7223" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7224" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7224" s="2">
         <v>45592.917314814818</v>
       </c>
-      <c r="B7224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7225" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7225" s="2">
         <v>45592.958981481483</v>
       </c>
-      <c r="B7225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7226" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7226" s="2">
         <v>45593.000648148147</v>
       </c>
-      <c r="B7226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7227" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7227" s="2">
         <v>45593.042314814818</v>
       </c>
-      <c r="B7227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7228" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7228" s="2">
         <v>45593.083981481483</v>
       </c>
-      <c r="B7228" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7229" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7229" s="2">
         <v>45593.125648148147</v>
       </c>
-      <c r="B7229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7230" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7230" s="2">
         <v>45593.167314814818</v>
       </c>
-      <c r="B7230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7231" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7231" s="2">
         <v>45593.208981481483</v>
       </c>
-      <c r="B7231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7232" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7232" s="2">
         <v>45593.250648148147</v>
       </c>
-      <c r="B7232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7233" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7233" s="2">
         <v>45593.292314814818</v>
       </c>
-      <c r="B7233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7234" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7234" s="2">
         <v>45593.333981481483</v>
       </c>
-      <c r="B7234" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7235" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7235" s="2">
         <v>45593.375648148147</v>
       </c>
-      <c r="B7235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7236" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7236" s="2">
         <v>45593.417314814818</v>
       </c>
-      <c r="B7236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7237" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7237" s="2">
         <v>45593.458981481483</v>
       </c>
-      <c r="B7237" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7238" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7238" s="2">
         <v>45593.500648148147</v>
       </c>
-      <c r="B7238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7239" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7239" s="2">
         <v>45593.542314814818</v>
       </c>
-      <c r="B7239" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7240" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7240" s="2">
         <v>45593.583981481483</v>
       </c>
-      <c r="B7240" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7241" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7241" s="2">
         <v>45593.625648148147</v>
       </c>
-      <c r="B7241" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7242" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7242" s="2">
         <v>45593.667314814818</v>
       </c>
-      <c r="B7242" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7243" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7243" s="2">
         <v>45593.708981481483</v>
       </c>
-      <c r="B7243" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7244" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7244" s="2">
         <v>45593.750648148147</v>
       </c>
-      <c r="B7244" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7245" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7245" s="2">
         <v>45593.792314814818</v>
       </c>
-      <c r="B7245" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7246" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7246" s="2">
         <v>45593.833981481483</v>
       </c>
-      <c r="B7246" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7247" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7247" s="2">
         <v>45593.875648148147</v>
       </c>
-      <c r="B7247" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7248" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7248" s="2">
         <v>45593.917314814818</v>
       </c>
-      <c r="B7248" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7249" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7249" s="2">
         <v>45593.958981481483</v>
       </c>
-      <c r="B7249" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7250" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7250" s="2">
         <v>45594.000648148147</v>
       </c>
-      <c r="B7250" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7251" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7251" s="2">
         <v>45594.042314814818</v>
       </c>
-      <c r="B7251" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7252" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7252" s="2">
         <v>45594.083981481483</v>
       </c>
-      <c r="B7252" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7253" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7253" s="2">
         <v>45594.125648148147</v>
       </c>
-      <c r="B7253" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7254" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7254" s="2">
         <v>45594.167314814818</v>
       </c>
-      <c r="B7254" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7255" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7255" s="2">
         <v>45594.208981481483</v>
       </c>
-      <c r="B7255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7256" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7256" s="2">
         <v>45594.250648148147</v>
       </c>
-      <c r="B7256" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7257" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7257" s="2">
         <v>45594.292314814818</v>
       </c>
-      <c r="B7257" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7258" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7258" s="2">
         <v>45594.333981481483</v>
       </c>
-      <c r="B7258" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7259" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7259" s="2">
         <v>45594.375648148147</v>
       </c>
-      <c r="B7259" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7260" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7260" s="2">
         <v>45594.417314814818</v>
       </c>
-      <c r="B7260" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7261" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7261" s="2">
         <v>45594.458981481483</v>
       </c>
-      <c r="B7261" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7262" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7262" s="2">
         <v>45594.500648148147</v>
       </c>
-      <c r="B7262" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7263" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7263" s="2">
         <v>45594.542314814818</v>
       </c>
-      <c r="B7263" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7264" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7264" s="2">
         <v>45594.583981481483</v>
       </c>
-      <c r="B7264" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7265" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7265" s="2">
         <v>45594.625648148147</v>
       </c>
-      <c r="B7265" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7266" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7266" s="2">
         <v>45594.667314814818</v>
       </c>
-      <c r="B7266" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7267" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7267" s="2">
         <v>45594.708981481483</v>
       </c>
-      <c r="B7267" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7268" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7268" s="2">
         <v>45594.750648148147</v>
       </c>
-      <c r="B7268" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7269" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7269" s="2">
         <v>45594.792314814818</v>
       </c>
-      <c r="B7269" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7270" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7270" s="2">
         <v>45594.833981481483</v>
       </c>
-      <c r="B7270" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7271" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7271" s="2">
         <v>45594.875648148147</v>
       </c>
-      <c r="B7271" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7272" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7272" s="2">
         <v>45594.917314814818</v>
       </c>
-      <c r="B7272" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7273" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7273" s="2">
         <v>45594.958981481483</v>
       </c>
-      <c r="B7273" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7274" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7274" s="2">
         <v>45595.000648148147</v>
       </c>
-      <c r="B7274" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7275" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7275" s="2">
         <v>45595.042314814818</v>
       </c>
-      <c r="B7275" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7276" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7276" s="2">
         <v>45595.083981481483</v>
       </c>
-      <c r="B7276" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7277" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7277" s="2">
         <v>45595.125648148147</v>
       </c>
-      <c r="B7277" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7278" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7278" s="2">
         <v>45595.167314814818</v>
       </c>
-      <c r="B7278" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7279" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7279" s="2">
         <v>45595.208981481483</v>
       </c>
-      <c r="B7279" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7280" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7280" s="2">
         <v>45595.250648148147</v>
-      </c>
-      <c r="B7280" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="7281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7281" s="2">
         <v>45595.292314814818</v>
       </c>
-      <c r="B7281" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7282" s="2">
         <v>45595.333981481483</v>
       </c>
-      <c r="B7282" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7283" s="2">
         <v>45595.375648148147</v>
       </c>
-      <c r="B7283" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7284" s="2">
         <v>45595.417314814818</v>
       </c>
-      <c r="B7284" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7285" s="2">
@@ -59796,25 +58525,16 @@
       <c r="A7424" s="2">
         <v>45601.250648148147</v>
       </c>
-      <c r="B7424" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7425" s="2">
         <v>45601.292314814818</v>
       </c>
-      <c r="B7425" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7426" s="2">
         <v>45601.333981481483</v>
       </c>
-      <c r="B7426" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7427" s="2">
@@ -60844,193 +59564,121 @@
       <c r="A7555" s="2">
         <v>45606.708981481483</v>
       </c>
-      <c r="B7555" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7556" s="2">
         <v>45606.750648148147</v>
       </c>
-      <c r="B7556" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7557" s="2">
         <v>45606.792314814818</v>
       </c>
-      <c r="B7557" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7558" s="2">
         <v>45606.833981481483</v>
       </c>
-      <c r="B7558" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7559" s="2">
         <v>45606.875648148147</v>
       </c>
-      <c r="B7559" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7560" s="2">
         <v>45606.917314814818</v>
       </c>
-      <c r="B7560" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7561" s="2">
         <v>45606.958981481483</v>
       </c>
-      <c r="B7561" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7562" s="2">
         <v>45607.000648148147</v>
       </c>
-      <c r="B7562" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7563" s="2">
         <v>45607.042314814818</v>
       </c>
-      <c r="B7563" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7564" s="2">
         <v>45607.083981481483</v>
       </c>
-      <c r="B7564" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7565" s="2">
         <v>45607.125648148147</v>
       </c>
-      <c r="B7565" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7566" s="2">
         <v>45607.167314814818</v>
       </c>
-      <c r="B7566" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7567" s="2">
         <v>45607.208981481483</v>
       </c>
-      <c r="B7567" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7568" s="2">
         <v>45607.250648148147</v>
       </c>
-      <c r="B7568" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7569" s="2">
         <v>45607.292314814818</v>
       </c>
-      <c r="B7569" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7570" s="2">
         <v>45607.333981481483</v>
       </c>
-      <c r="B7570" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7571" s="2">
         <v>45607.375648148147</v>
       </c>
-      <c r="B7571" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7572" s="2">
         <v>45607.417314814818</v>
       </c>
-      <c r="B7572" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7573" s="2">
         <v>45607.458981481483</v>
       </c>
-      <c r="B7573" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7574" s="2">
         <v>45607.500648148147</v>
       </c>
-      <c r="B7574" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7575" s="2">
         <v>45607.542314814818</v>
       </c>
-      <c r="B7575" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7576" s="2">
         <v>45607.583981481483</v>
       </c>
-      <c r="B7576" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7577" s="2">
         <v>45607.625648148147</v>
       </c>
-      <c r="B7577" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7578" s="2">
         <v>45607.667314814818</v>
       </c>
-      <c r="B7578" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7579" s="2">
@@ -61828,521 +60476,326 @@
       <c r="A7678" s="2">
         <v>45611.833981481483</v>
       </c>
-      <c r="B7678" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7679" s="2">
         <v>45611.875648148147</v>
       </c>
-      <c r="B7679" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7680" s="2">
         <v>45611.917314814818</v>
       </c>
-      <c r="B7680" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7681" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7681" s="2">
         <v>45611.958981481483</v>
       </c>
-      <c r="B7681" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7682" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7682" s="2">
         <v>45612.000648148147</v>
       </c>
-      <c r="B7682" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7683" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7683" s="2">
         <v>45612.042314814818</v>
       </c>
-      <c r="B7683" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7684" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7684" s="2">
         <v>45612.083981481483</v>
       </c>
-      <c r="B7684" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7685" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7685" s="2">
         <v>45612.125648148147</v>
       </c>
-      <c r="B7685" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7686" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7686" s="2">
         <v>45612.167314814818</v>
       </c>
-      <c r="B7686" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7687" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7687" s="2">
         <v>45612.208981481483</v>
       </c>
-      <c r="B7687" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7688" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7688" s="2">
         <v>45612.250648148147</v>
       </c>
-      <c r="B7688" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7689" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7689" s="2">
         <v>45612.292314814818</v>
       </c>
-      <c r="B7689" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7690" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7690" s="2">
         <v>45612.333981481483</v>
       </c>
-      <c r="B7690" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7691" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7691" s="2">
         <v>45612.375648148147</v>
       </c>
-      <c r="B7691" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7692" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7692" s="2">
         <v>45612.417314814818</v>
       </c>
-      <c r="B7692" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7693" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7693" s="2">
         <v>45612.458981481483</v>
       </c>
-      <c r="B7693" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7694" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7694" s="2">
         <v>45612.500648148147</v>
       </c>
-      <c r="B7694" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7695" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7695" s="2">
         <v>45612.542314814818</v>
       </c>
-      <c r="B7695" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7696" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7696" s="2">
         <v>45612.583981481483</v>
       </c>
-      <c r="B7696" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7697" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7697" s="2">
         <v>45612.625648148147</v>
       </c>
-      <c r="B7697" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7698" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7698" s="2">
         <v>45612.667314814818</v>
       </c>
-      <c r="B7698" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7699" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7699" s="2">
         <v>45612.708981481483</v>
       </c>
-      <c r="B7699" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7700" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7700" s="2">
         <v>45612.750648148147</v>
       </c>
-      <c r="B7700" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7701" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7701" s="2">
         <v>45612.792314814818</v>
       </c>
-      <c r="B7701" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7702" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7702" s="2">
         <v>45612.833981481483</v>
       </c>
-      <c r="B7702" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7703" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7703" s="2">
         <v>45612.875648148147</v>
       </c>
-      <c r="B7703" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7704" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7704" s="2">
         <v>45612.917314814818</v>
       </c>
-      <c r="B7704" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7705" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7705" s="2">
         <v>45612.958981481483</v>
       </c>
-      <c r="B7705" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7706" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7706" s="2">
         <v>45613.000648148147</v>
       </c>
-      <c r="B7706" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7707" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7707" s="2">
         <v>45613.042314814818</v>
       </c>
-      <c r="B7707" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7708" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7708" s="2">
         <v>45613.083981481483</v>
       </c>
-      <c r="B7708" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7709" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7709" s="2">
         <v>45613.125648148147</v>
       </c>
-      <c r="B7709" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7710" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7710" s="2">
         <v>45613.167314814818</v>
       </c>
-      <c r="B7710" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7711" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7711" s="2">
         <v>45613.208981481483</v>
       </c>
-      <c r="B7711" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7712" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7712" s="2">
         <v>45613.250648148147</v>
       </c>
-      <c r="B7712" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7713" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7713" s="2">
         <v>45613.292314814818</v>
       </c>
-      <c r="B7713" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7714" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7714" s="2">
         <v>45613.333981481483</v>
       </c>
-      <c r="B7714" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7715" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7715" s="2">
         <v>45613.375648148147</v>
       </c>
-      <c r="B7715" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7716" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7716" s="2">
         <v>45613.417314814818</v>
       </c>
-      <c r="B7716" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7717" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7717" s="2">
         <v>45613.458981481483</v>
       </c>
-      <c r="B7717" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7718" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7718" s="2">
         <v>45613.500648148147</v>
       </c>
-      <c r="B7718" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7719" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7719" s="2">
         <v>45613.542314814818</v>
       </c>
-      <c r="B7719" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7720" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7720" s="2">
         <v>45613.583981481483</v>
       </c>
-      <c r="B7720" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7721" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7721" s="2">
         <v>45613.625648148147</v>
       </c>
-      <c r="B7721" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7722" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7722" s="2">
         <v>45613.667314814818</v>
       </c>
-      <c r="B7722" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7723" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7723" s="2">
         <v>45613.708981481483</v>
       </c>
-      <c r="B7723" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7724" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7724" s="2">
         <v>45613.750648148147</v>
       </c>
-      <c r="B7724" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7725" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7725" s="2">
         <v>45613.792314814818</v>
       </c>
-      <c r="B7725" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7726" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7726" s="2">
         <v>45613.833981481483</v>
       </c>
-      <c r="B7726" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7727" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7727" s="2">
         <v>45613.875648148147</v>
       </c>
-      <c r="B7727" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7728" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7728" s="2">
         <v>45613.917314814818</v>
-      </c>
-      <c r="B7728" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="7729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7729" s="2">
         <v>45613.958981481483</v>
       </c>
-      <c r="B7729" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7730" s="2">
         <v>45614.000648148147</v>
       </c>
-      <c r="B7730" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7731" s="2">
         <v>45614.042314814818</v>
       </c>
-      <c r="B7731" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7732" s="2">
         <v>45614.083981481483</v>
       </c>
-      <c r="B7732" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7733" s="2">
         <v>45614.125648148147</v>
       </c>
-      <c r="B7733" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7734" s="2">
         <v>45614.167314814818</v>
       </c>
-      <c r="B7734" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7735" s="2">
         <v>45614.208981481483</v>
       </c>
-      <c r="B7735" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7736" s="2">
         <v>45614.250648148147</v>
       </c>
-      <c r="B7736" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7737" s="2">
         <v>45614.292314814818</v>
       </c>
-      <c r="B7737" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7738" s="2">
         <v>45614.333981481483</v>
       </c>
-      <c r="B7738" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7739" s="2">
         <v>45614.375648148147</v>
       </c>
-      <c r="B7739" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7740" s="2">
         <v>45614.417314814818</v>
       </c>
-      <c r="B7740" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7741" s="2">
         <v>45614.458981481483</v>
       </c>
-      <c r="B7741" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7742" s="2">
         <v>45614.500648148147</v>
       </c>
-      <c r="B7742" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="7743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7743" s="2">
@@ -68300,17 +66753,11 @@
       <c r="A8487" s="2">
         <v>45645.542314814818</v>
       </c>
-      <c r="B8487" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8488" s="2">
         <v>45645.583981481483</v>
       </c>
-      <c r="B8488" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8489" s="2">
@@ -70436,376 +68883,235 @@
       <c r="A8754" s="2">
         <v>45656.667314814818</v>
       </c>
-      <c r="B8754" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8755" s="2">
         <v>45656.708981481483</v>
       </c>
-      <c r="B8755" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8756" s="2">
         <v>45656.750648148147</v>
       </c>
-      <c r="B8756" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8757" s="2">
         <v>45656.792314814818</v>
       </c>
-      <c r="B8757" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8758" s="2">
         <v>45656.833981481483</v>
       </c>
-      <c r="B8758" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8759" s="2">
         <v>45656.875648148147</v>
       </c>
-      <c r="B8759" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8760" s="2">
         <v>45656.917314814818</v>
       </c>
-      <c r="B8760" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8761" s="2">
         <v>45656.958981481483</v>
       </c>
-      <c r="B8761" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8762" s="2">
         <v>45657.000648148147</v>
       </c>
-      <c r="B8762" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8763" s="2">
         <v>45657.042314814818</v>
       </c>
-      <c r="B8763" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8764" s="2">
         <v>45657.083981481483</v>
       </c>
-      <c r="B8764" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8765" s="2">
         <v>45657.125648148147</v>
       </c>
-      <c r="B8765" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8766" s="2">
         <v>45657.167314814818</v>
       </c>
-      <c r="B8766" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8767" s="2">
         <v>45657.208981481483</v>
       </c>
-      <c r="B8767" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="8768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8768" s="2">
         <v>45657.250648148147</v>
       </c>
-      <c r="B8768" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8769" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8769" s="2">
         <v>45657.292314814818</v>
       </c>
-      <c r="B8769" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8770" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8770" s="2">
         <v>45657.333981481483</v>
       </c>
-      <c r="B8770" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8771" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8771" s="2">
         <v>45657.375648148147</v>
       </c>
-      <c r="B8771" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8772" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8772" s="2">
         <v>45657.417314814818</v>
       </c>
-      <c r="B8772" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8773" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8773" s="2">
         <v>45657.458981481483</v>
       </c>
-      <c r="B8773" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8774" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8774" s="2">
         <v>45657.500648148147</v>
       </c>
-      <c r="B8774" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8775" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8775" s="2">
         <v>45657.542314814818</v>
       </c>
-      <c r="B8775" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8776" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8776" s="2">
         <v>45657.583981481483</v>
       </c>
-      <c r="B8776" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8777" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8777" s="2">
         <v>45657.625648148147</v>
       </c>
-      <c r="B8777" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8778" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8778" s="2">
         <v>45657.667314814818</v>
       </c>
-      <c r="B8778" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8779" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8779" s="2">
         <v>45657.708981481483</v>
       </c>
-      <c r="B8779" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8780" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8780" s="2">
         <v>45657.750648148147</v>
       </c>
-      <c r="B8780" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8781" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8781" s="2">
         <v>45657.792314814818</v>
       </c>
-      <c r="B8781" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8782" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8782" s="2">
         <v>45657.833981481483</v>
       </c>
-      <c r="B8782" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8783" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8783" s="2">
         <v>45657.875648148147</v>
       </c>
-      <c r="B8783" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8784" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8784" s="2">
         <v>45657.917314814818</v>
       </c>
-      <c r="B8784" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8785" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8785" s="2">
         <v>45657.958981481483</v>
       </c>
-      <c r="B8785" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8786" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8786" s="2">
         <v>45658.000648148147</v>
       </c>
-      <c r="B8786" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8787" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8787" s="2">
         <v>45658.042314814818</v>
       </c>
-      <c r="B8787" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8788" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8788" s="2">
         <v>45658.083981481483</v>
       </c>
-      <c r="B8788" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8789" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8789" s="2">
         <v>45658.125648148147</v>
       </c>
-      <c r="B8789" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8790" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8790" s="2">
         <v>45658.167314814818</v>
       </c>
-      <c r="B8790" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8791" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8791" s="2">
         <v>45658.208981481483</v>
       </c>
-      <c r="B8791" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8792" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8792" s="2">
         <v>45658.250648148147</v>
       </c>
-      <c r="B8792" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8793" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8793" s="2">
         <v>45658.292314814818</v>
       </c>
-      <c r="B8793" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8794" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8794" s="2">
         <v>45658.333981481483</v>
       </c>
-      <c r="B8794" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8795" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8795" s="2">
         <v>45658.375648148147</v>
       </c>
-      <c r="B8795" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8796" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8796" s="2">
         <v>45658.417314814818</v>
       </c>
-      <c r="B8796" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8797" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8797" s="2">
         <v>45658.458981481483</v>
       </c>
-      <c r="B8797" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8798" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8798" s="2">
         <v>45658.500648148147</v>
       </c>
-      <c r="B8798" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8799" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8799" s="2">
         <v>45658.542314814818</v>
       </c>
-      <c r="B8799" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8800" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8800" s="2">
         <v>45658.583981481483</v>
-      </c>
-      <c r="B8800" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
